--- a/Assets/需要资源.xlsx
+++ b/Assets/需要资源.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>名称</t>
+  </si>
+  <si>
+    <t>具体</t>
   </si>
   <si>
     <t>格式要求</t>
@@ -32,18 +35,21 @@
   <si>
     <t>64x64</t>
   </si>
+  <si>
+    <t>若干张，具体见GameSystem里</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,14 +59,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -74,12 +112,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -87,9 +133,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,20 +163,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -132,72 +171,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,187 +211,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,24 +407,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,6 +421,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,17 +455,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -480,17 +470,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,153 +487,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,19 +1004,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.8888888888889" customWidth="1"/>
-    <col min="2" max="3" width="13.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="13.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="19.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="28.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1027,13 +1028,19 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/需要资源.xlsx
+++ b/Assets/需要资源.xlsx
@@ -16,27 +16,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>名称</t>
   </si>
   <si>
-    <t>具体</t>
-  </si>
-  <si>
     <t>格式要求</t>
   </si>
   <si>
+    <t>具体命名</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
     <t>光标的图片</t>
   </si>
   <si>
-    <t>64x64</t>
-  </si>
-  <si>
-    <t>若干张，具体见GameSystem里</t>
+    <t>64x64，png透明背景，光标点放在正中心</t>
+  </si>
+  <si>
+    <t>菜单</t>
+  </si>
+  <si>
+    <t>开始菜单和游戏中菜单状态时显示的光标图片</t>
+  </si>
+  <si>
+    <t>菜单2</t>
+  </si>
+  <si>
+    <t>光标在菜单状态下移动到按钮上显示的图片</t>
+  </si>
+  <si>
+    <t>默认</t>
+  </si>
+  <si>
+    <t>游戏中默认光标图片</t>
+  </si>
+  <si>
+    <t>远处调查</t>
+  </si>
+  <si>
+    <t>在远处光标瞄准某物体时显示的图片</t>
+  </si>
+  <si>
+    <t>近处调查</t>
+  </si>
+  <si>
+    <t>在近处光标瞄准某物体时显示的图片</t>
   </si>
 </sst>
 </file>
@@ -44,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,9 +92,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,38 +138,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,24 +169,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,38 +193,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,31 +238,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,151 +406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,13 +432,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,6 +471,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -455,21 +495,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -481,9 +506,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,139 +549,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1004,18 +1034,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="13.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="19.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="28.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="37.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="21.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="45.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1033,17 +1063,64 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
